--- a/data/case1/5/P1_1.xlsx
+++ b/data/case1/5/P1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.44790143146268235</v>
+        <v>0.37990752884762458</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994028188155</v>
+        <v>-0.0099999993713915103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999993900402586</v>
+        <v>-0.0089999993580871518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999830447194</v>
+        <v>-0.011999999829235719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999993943629093</v>
+        <v>-0.0059999993625829973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999993721895351</v>
+        <v>-0.0059999993415367214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999925858198</v>
+        <v>-0.019999999228947019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999250703837</v>
+        <v>-0.019999999225461806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999993525989836</v>
+        <v>-0.0059999993344366231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999999344631135</v>
+        <v>-0.0059999993333121893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999993555556728</v>
+        <v>-0.0044999993451853015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0068911660597410496</v>
+        <v>-0.0059999993333739177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999993311681266</v>
+        <v>-0.0059999993355477343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999280302376</v>
+        <v>-0.011999999289254326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999993253150308</v>
+        <v>0.048903961416226771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999993229629123</v>
+        <v>-0.0059999993368755611</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999993198740498</v>
+        <v>-0.0059999993337136459</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.00899999929535511</v>
+        <v>-0.009861174282823626</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.030196971604131928</v>
+        <v>-0.0089999993775564668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999993866243244</v>
+        <v>-0.060609865892079284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.085001836225020888</v>
+        <v>-0.0089999993582621229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999993809048995</v>
+        <v>-0.0089999993574343407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999993842653225</v>
+        <v>-0.0089999993524871869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999113153663</v>
+        <v>-0.041999999079017414</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999108043085</v>
+        <v>-0.041999999073254024</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999993702497534</v>
+        <v>-0.005999999339135087</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999993681736363</v>
+        <v>-0.0049696746610341513</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999993583872424</v>
+        <v>-0.0059999993207346947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999304366682</v>
+        <v>-0.011999999262741312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999238109911</v>
+        <v>-0.019999999193859086</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999274586173</v>
+        <v>-0.014999999226020577</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999226941846</v>
+        <v>-0.023234921353948224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.015537756498054556</v>
+        <v>-0.0059999992958399417</v>
       </c>
     </row>
   </sheetData>
